--- a/data/input/cost_data/PLA_cost_lab.xlsx
+++ b/data/input/cost_data/PLA_cost_lab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/cost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/input/cost_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974DBEB4-EEBA-AB4E-919C-F66D68967958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58EFAAC-3409-474B-BC5D-BD49108A1888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="500" windowWidth="21740" windowHeight="18240" activeTab="3" xr2:uid="{9E23791E-A9D1-B24D-9D6E-42C1F180DBE7}"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="17860" windowHeight="18240" activeTab="2" xr2:uid="{9E23791E-A9D1-B24D-9D6E-42C1F180DBE7}"/>
   </bookViews>
   <sheets>
     <sheet name="shredding" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -146,10 +156,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +477,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,33 +503,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -597,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.3900000000000002E-2</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="H3">
         <v>8.3000000000000004E-2</v>
@@ -649,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14329C3B-818D-974A-839B-1CDF92A21CC9}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="C1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,33 +686,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -780,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.3900000000000002E-2</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="H3">
         <v>0.33</v>
@@ -832,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F903924-2D1B-F649-8D6E-329FE2160CED}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -859,33 +869,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1015,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C261B8B2-5703-4A47-9A2B-A87AD92FEE9B}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,34 +1052,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1134,7 +1144,7 @@
       <c r="B3">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>8</v>
       </c>
       <c r="D3">
@@ -1148,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.3900000000000002E-2</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="H3">
         <v>8.3000000000000004E-2</v>
